--- a/Hackathon/src/test/resources/ExcelFiles/IngredientsAndComorbidities-ScrapperHackathon.xlsx
+++ b/Hackathon/src/test/resources/ExcelFiles/IngredientsAndComorbidities-ScrapperHackathon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NumpyNinja_Projects\Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepository\Hackathon\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2912A3AB-FA3D-4177-B6B3-89A81AEA0C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986CB1C7-8445-4C66-880B-B3E584FCD9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="199">
   <si>
     <t>Diabetes</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>coriander</t>
+  </si>
+  <si>
+    <t>turmeric</t>
   </si>
 </sst>
 </file>
@@ -2084,8 +2087,8 @@
   </sheetPr>
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3121,9 @@
       <c r="A27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="C27" s="9" t="s">
         <v>74</v>
       </c>

--- a/Hackathon/src/test/resources/ExcelFiles/IngredientsAndComorbidities-ScrapperHackathon.xlsx
+++ b/Hackathon/src/test/resources/ExcelFiles/IngredientsAndComorbidities-ScrapperHackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepository\Hackathon\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986CB1C7-8445-4C66-880B-B3E584FCD9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6C967-7989-4F62-914F-9F920B677FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="213">
   <si>
     <t>Diabetes</t>
   </si>
@@ -617,6 +617,48 @@
   </si>
   <si>
     <t>turmeric</t>
+  </si>
+  <si>
+    <t>Allerigies</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Soy</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>pistachio</t>
+  </si>
+  <si>
+    <t>Shell fish</t>
+  </si>
+  <si>
+    <t>Seafood</t>
   </si>
 </sst>
 </file>
@@ -2087,8 +2129,8 @@
   </sheetPr>
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2162,9 @@
         <v>3</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2204,7 +2248,9 @@
       <c r="H3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -2246,7 +2292,9 @@
       <c r="H4" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2286,7 +2334,9 @@
         <v>17</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -2326,7 +2376,9 @@
         <v>164</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -2366,7 +2418,9 @@
         <v>27</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -2406,7 +2460,9 @@
         <v>31</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2446,7 +2502,9 @@
         <v>165</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -2486,7 +2544,9 @@
         <v>166</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -2526,7 +2586,9 @@
         <v>40</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -2566,7 +2628,9 @@
         <v>44</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -2606,7 +2670,9 @@
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -2646,7 +2712,9 @@
         <v>52</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -2686,7 +2754,9 @@
         <v>56</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
